--- a/testLABreg.xlsx
+++ b/testLABreg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rigato Alberto\Desktop\reader-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F727D4E3-0B7C-47DA-8D1D-855CFD330F95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B76D589E-7E9B-457E-9BF1-CDD3F399D6BA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="15" windowWidth="28740" windowHeight="15585" xr2:uid="{15D53D98-5B92-41E8-BA6A-9ECB43C99A7F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{15D53D98-5B92-41E8-BA6A-9ECB43C99A7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="66">
   <si>
     <t>F</t>
   </si>
@@ -210,9 +210,6 @@
     <t>Kfas</t>
   </si>
   <si>
-    <t>Tasd</t>
-  </si>
-  <si>
     <t>Post Protesi Ginocchio SX</t>
   </si>
   <si>
@@ -222,13 +219,19 @@
     <t>Querew</t>
   </si>
   <si>
-    <t>Msad</t>
-  </si>
-  <si>
-    <t>Easd</t>
-  </si>
-  <si>
     <t>Jmans</t>
+  </si>
+  <si>
+    <t>Easd Rre</t>
+  </si>
+  <si>
+    <t>Tasd Mjh</t>
+  </si>
+  <si>
+    <t>Msad Udfd</t>
+  </si>
+  <si>
+    <t>Masda Ouas</t>
   </si>
 </sst>
 </file>
@@ -661,11 +664,13 @@
   <dimension ref="A1:AV9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
     <col min="13" max="13" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1030,10 +1035,10 @@
       </c>
       <c r="E4" s="2" t="str">
         <f t="shared" ref="E4" si="5">_xlfn.CONCAT(F4,G4,I4)</f>
-        <v>TasdKfas23200</v>
+        <v>Tasd MjhKfas23200</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>57</v>
@@ -1137,13 +1142,13 @@
       </c>
       <c r="E5" s="2" t="str">
         <f t="shared" ref="E5" si="8">_xlfn.CONCAT(F5,G5,I5)</f>
-        <v>EasdJmans15454</v>
+        <v>Easd RreJmans15454</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>0</v>
@@ -1331,13 +1336,13 @@
       </c>
       <c r="E7" s="2" t="str">
         <f t="shared" ref="E7" si="11">_xlfn.CONCAT(F7,G7,I7)</f>
-        <v>QuerewMsad37591</v>
+        <v>QuerewMsad Udfd37591</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>7</v>
@@ -1451,7 +1456,7 @@
         <v>9</v>
       </c>
       <c r="M8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>4</v>
@@ -1537,13 +1542,13 @@
       </c>
       <c r="E9" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>LooadaMasda24348</v>
+        <v>LooadaMasda Ouas24348</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>50</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>7</v>
@@ -1561,7 +1566,7 @@
         <v>9</v>
       </c>
       <c r="M9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N9" s="2" t="s">
         <v>4</v>
